--- a/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
@@ -2072,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="94" t="n">
-        <v>43911.0</v>
+        <v>43919.0</v>
       </c>
       <c r="C3" s="95" t="n">
         <v>0.4375</v>
@@ -2084,7 +2084,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="97" t="n">
-        <v>43912.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G3" s="98" t="n">
         <v>0.6458333333333334</v>
@@ -2100,7 +2100,7 @@
         <v>106</v>
       </c>
       <c r="N3" s="101" t="n">
-        <v>43914.0</v>
+        <v>43922.0</v>
       </c>
       <c r="O3" s="102" t="n">
         <v>0.4583333333333333</v>
@@ -2112,7 +2112,7 @@
         <v>131</v>
       </c>
       <c r="R3" s="40" t="n">
-        <v>43927.0</v>
+        <v>43935.0</v>
       </c>
       <c r="S3" s="58" t="n">
         <v>0.4166666666666667</v>
@@ -2141,7 +2141,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="34" t="n">
-        <v>43910.0</v>
+        <v>43918.0</v>
       </c>
       <c r="C4" s="47" t="n">
         <v>0.4791666666666667</v>
@@ -2153,7 +2153,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="35" t="n">
-        <v>43909.0</v>
+        <v>43917.0</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>0.5208333333333334</v>
@@ -2165,7 +2165,7 @@
         <v>109</v>
       </c>
       <c r="J4" s="38" t="n">
-        <v>43913.0</v>
+        <v>43921.0</v>
       </c>
       <c r="K4" s="44" t="n">
         <v>0.5277777777777778</v>
@@ -2177,7 +2177,7 @@
         <v>106</v>
       </c>
       <c r="N4" s="37" t="n">
-        <v>43915.0</v>
+        <v>43923.0</v>
       </c>
       <c r="O4" s="42" t="n">
         <v>0.7083333333333334</v>
@@ -2189,7 +2189,7 @@
         <v>132</v>
       </c>
       <c r="R4" s="41" t="n">
-        <v>43919.0</v>
+        <v>43927.0</v>
       </c>
       <c r="S4" s="60" t="n">
         <v>0.5</v>
@@ -2215,7 +2215,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="105" t="n">
-        <v>43910.0</v>
+        <v>43918.0</v>
       </c>
       <c r="C5" s="106" t="n">
         <v>0.4791666666666667</v>
@@ -2227,7 +2227,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="108" t="n">
-        <v>43909.0</v>
+        <v>43917.0</v>
       </c>
       <c r="G5" s="109" t="n">
         <v>0.5208333333333334</v>
@@ -2239,7 +2239,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="112" t="n">
-        <v>43913.0</v>
+        <v>43921.0</v>
       </c>
       <c r="K5" s="113" t="n">
         <v>0.5277777777777778</v>
@@ -2251,7 +2251,7 @@
         <v>106</v>
       </c>
       <c r="N5" s="116" t="n">
-        <v>43915.0</v>
+        <v>43923.0</v>
       </c>
       <c r="O5" s="117" t="n">
         <v>0.7083333333333334</v>
@@ -2261,7 +2261,7 @@
         <v>131</v>
       </c>
       <c r="R5" s="118" t="n">
-        <v>43919.0</v>
+        <v>43927.0</v>
       </c>
       <c r="S5" s="119" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
@@ -2072,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="94" t="n">
-        <v>43919.0</v>
+        <v>43922.0</v>
       </c>
       <c r="C3" s="95" t="n">
         <v>0.4375</v>
@@ -2084,7 +2084,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="97" t="n">
-        <v>43920.0</v>
+        <v>43923.0</v>
       </c>
       <c r="G3" s="98" t="n">
         <v>0.6458333333333334</v>
@@ -2100,7 +2100,7 @@
         <v>106</v>
       </c>
       <c r="N3" s="101" t="n">
-        <v>43922.0</v>
+        <v>43925.0</v>
       </c>
       <c r="O3" s="102" t="n">
         <v>0.4583333333333333</v>
@@ -2112,7 +2112,7 @@
         <v>131</v>
       </c>
       <c r="R3" s="40" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S3" s="58" t="n">
         <v>0.4166666666666667</v>
@@ -2141,7 +2141,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="34" t="n">
-        <v>43918.0</v>
+        <v>43921.0</v>
       </c>
       <c r="C4" s="47" t="n">
         <v>0.4791666666666667</v>
@@ -2153,7 +2153,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="35" t="n">
-        <v>43917.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>0.5208333333333334</v>
@@ -2165,7 +2165,7 @@
         <v>109</v>
       </c>
       <c r="J4" s="38" t="n">
-        <v>43921.0</v>
+        <v>43924.0</v>
       </c>
       <c r="K4" s="44" t="n">
         <v>0.5277777777777778</v>
@@ -2177,7 +2177,7 @@
         <v>106</v>
       </c>
       <c r="N4" s="37" t="n">
-        <v>43923.0</v>
+        <v>43926.0</v>
       </c>
       <c r="O4" s="42" t="n">
         <v>0.7083333333333334</v>
@@ -2189,7 +2189,7 @@
         <v>132</v>
       </c>
       <c r="R4" s="41" t="n">
-        <v>43927.0</v>
+        <v>43930.0</v>
       </c>
       <c r="S4" s="60" t="n">
         <v>0.5</v>
@@ -2215,7 +2215,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="105" t="n">
-        <v>43918.0</v>
+        <v>43921.0</v>
       </c>
       <c r="C5" s="106" t="n">
         <v>0.4791666666666667</v>
@@ -2227,7 +2227,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="108" t="n">
-        <v>43917.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G5" s="109" t="n">
         <v>0.5208333333333334</v>
@@ -2239,7 +2239,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="112" t="n">
-        <v>43921.0</v>
+        <v>43924.0</v>
       </c>
       <c r="K5" s="113" t="n">
         <v>0.5277777777777778</v>
@@ -2251,7 +2251,7 @@
         <v>106</v>
       </c>
       <c r="N5" s="116" t="n">
-        <v>43923.0</v>
+        <v>43926.0</v>
       </c>
       <c r="O5" s="117" t="n">
         <v>0.7083333333333334</v>
@@ -2261,7 +2261,7 @@
         <v>131</v>
       </c>
       <c r="R5" s="118" t="n">
-        <v>43927.0</v>
+        <v>43930.0</v>
       </c>
       <c r="S5" s="119" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
@@ -2072,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="94" t="n">
-        <v>43922.0</v>
+        <v>43933.0</v>
       </c>
       <c r="C3" s="95" t="n">
         <v>0.4375</v>
@@ -2084,7 +2084,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="97" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G3" s="98" t="n">
         <v>0.6458333333333334</v>
@@ -2100,7 +2100,7 @@
         <v>106</v>
       </c>
       <c r="N3" s="101" t="n">
-        <v>43925.0</v>
+        <v>43936.0</v>
       </c>
       <c r="O3" s="102" t="n">
         <v>0.4583333333333333</v>
@@ -2112,7 +2112,7 @@
         <v>131</v>
       </c>
       <c r="R3" s="40" t="n">
-        <v>43938.0</v>
+        <v>43949.0</v>
       </c>
       <c r="S3" s="58" t="n">
         <v>0.4166666666666667</v>
@@ -2141,7 +2141,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="34" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="C4" s="47" t="n">
         <v>0.4791666666666667</v>
@@ -2153,7 +2153,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="35" t="n">
-        <v>43920.0</v>
+        <v>43931.0</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>0.5208333333333334</v>
@@ -2165,7 +2165,7 @@
         <v>109</v>
       </c>
       <c r="J4" s="38" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="K4" s="44" t="n">
         <v>0.5277777777777778</v>
@@ -2177,7 +2177,7 @@
         <v>106</v>
       </c>
       <c r="N4" s="37" t="n">
-        <v>43926.0</v>
+        <v>43937.0</v>
       </c>
       <c r="O4" s="42" t="n">
         <v>0.7083333333333334</v>
@@ -2189,7 +2189,7 @@
         <v>132</v>
       </c>
       <c r="R4" s="41" t="n">
-        <v>43930.0</v>
+        <v>43941.0</v>
       </c>
       <c r="S4" s="60" t="n">
         <v>0.5</v>
@@ -2215,7 +2215,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="105" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="C5" s="106" t="n">
         <v>0.4791666666666667</v>
@@ -2227,7 +2227,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="108" t="n">
-        <v>43920.0</v>
+        <v>43931.0</v>
       </c>
       <c r="G5" s="109" t="n">
         <v>0.5208333333333334</v>
@@ -2239,7 +2239,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="112" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="K5" s="113" t="n">
         <v>0.5277777777777778</v>
@@ -2251,7 +2251,7 @@
         <v>106</v>
       </c>
       <c r="N5" s="116" t="n">
-        <v>43926.0</v>
+        <v>43937.0</v>
       </c>
       <c r="O5" s="117" t="n">
         <v>0.7083333333333334</v>
@@ -2261,7 +2261,7 @@
         <v>131</v>
       </c>
       <c r="R5" s="118" t="n">
-        <v>43930.0</v>
+        <v>43941.0</v>
       </c>
       <c r="S5" s="119" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
@@ -2072,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="94" t="n">
-        <v>43933.0</v>
+        <v>43936.0</v>
       </c>
       <c r="C3" s="95" t="n">
         <v>0.4375</v>
@@ -2084,7 +2084,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="97" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="G3" s="98" t="n">
         <v>0.6458333333333334</v>
@@ -2100,7 +2100,7 @@
         <v>106</v>
       </c>
       <c r="N3" s="101" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O3" s="102" t="n">
         <v>0.4583333333333333</v>
@@ -2112,7 +2112,7 @@
         <v>131</v>
       </c>
       <c r="R3" s="40" t="n">
-        <v>43949.0</v>
+        <v>43952.0</v>
       </c>
       <c r="S3" s="58" t="n">
         <v>0.4166666666666667</v>
@@ -2141,7 +2141,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="34" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="C4" s="47" t="n">
         <v>0.4791666666666667</v>
@@ -2153,7 +2153,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="35" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>0.5208333333333334</v>
@@ -2165,7 +2165,7 @@
         <v>109</v>
       </c>
       <c r="J4" s="38" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="K4" s="44" t="n">
         <v>0.5277777777777778</v>
@@ -2177,7 +2177,7 @@
         <v>106</v>
       </c>
       <c r="N4" s="37" t="n">
-        <v>43937.0</v>
+        <v>43940.0</v>
       </c>
       <c r="O4" s="42" t="n">
         <v>0.7083333333333334</v>
@@ -2189,7 +2189,7 @@
         <v>132</v>
       </c>
       <c r="R4" s="41" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S4" s="60" t="n">
         <v>0.5</v>
@@ -2215,7 +2215,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="105" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="C5" s="106" t="n">
         <v>0.4791666666666667</v>
@@ -2227,7 +2227,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="108" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G5" s="109" t="n">
         <v>0.5208333333333334</v>
@@ -2239,7 +2239,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="112" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="K5" s="113" t="n">
         <v>0.5277777777777778</v>
@@ -2251,7 +2251,7 @@
         <v>106</v>
       </c>
       <c r="N5" s="116" t="n">
-        <v>43937.0</v>
+        <v>43940.0</v>
       </c>
       <c r="O5" s="117" t="n">
         <v>0.7083333333333334</v>
@@ -2261,7 +2261,7 @@
         <v>131</v>
       </c>
       <c r="R5" s="118" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S5" s="119" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestNotExistingScheduleAgreement.xlsx
@@ -2072,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="94" t="n">
-        <v>43936.0</v>
+        <v>43942.0</v>
       </c>
       <c r="C3" s="95" t="n">
         <v>0.4375</v>
@@ -2084,7 +2084,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="97" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="G3" s="98" t="n">
         <v>0.6458333333333334</v>
@@ -2100,7 +2100,7 @@
         <v>106</v>
       </c>
       <c r="N3" s="101" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O3" s="102" t="n">
         <v>0.4583333333333333</v>
@@ -2112,7 +2112,7 @@
         <v>131</v>
       </c>
       <c r="R3" s="40" t="n">
-        <v>43952.0</v>
+        <v>43958.0</v>
       </c>
       <c r="S3" s="58" t="n">
         <v>0.4166666666666667</v>
@@ -2141,7 +2141,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="34" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="C4" s="47" t="n">
         <v>0.4791666666666667</v>
@@ -2153,7 +2153,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="35" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>0.5208333333333334</v>
@@ -2165,7 +2165,7 @@
         <v>109</v>
       </c>
       <c r="J4" s="38" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="K4" s="44" t="n">
         <v>0.5277777777777778</v>
@@ -2177,7 +2177,7 @@
         <v>106</v>
       </c>
       <c r="N4" s="37" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O4" s="42" t="n">
         <v>0.7083333333333334</v>
@@ -2189,7 +2189,7 @@
         <v>132</v>
       </c>
       <c r="R4" s="41" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S4" s="60" t="n">
         <v>0.5</v>
@@ -2215,7 +2215,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="105" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="C5" s="106" t="n">
         <v>0.4791666666666667</v>
@@ -2227,7 +2227,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="108" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G5" s="109" t="n">
         <v>0.5208333333333334</v>
@@ -2239,7 +2239,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="112" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="K5" s="113" t="n">
         <v>0.5277777777777778</v>
@@ -2251,7 +2251,7 @@
         <v>106</v>
       </c>
       <c r="N5" s="116" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O5" s="117" t="n">
         <v>0.7083333333333334</v>
@@ -2261,7 +2261,7 @@
         <v>131</v>
       </c>
       <c r="R5" s="118" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S5" s="119" t="n">
         <v>0.5</v>
